--- a/BTL/Project_E-Commerce Growth Analysis(TikTokShop)/Data/Creator_chuaCH_1thang.xlsx
+++ b/BTL/Project_E-Commerce Growth Analysis(TikTokShop)/Data/Creator_chuaCH_1thang.xlsx
@@ -1,28 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -869,19 +856,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -889,356 +870,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1261,316 +905,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1853,54 +1202,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
-  <cols>
-    <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="29.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="40.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="24.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="29.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="26.6666666666667" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2">
-        <v>0</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1922,8 +1261,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>1</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1945,8 +1284,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>2</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1968,8 +1307,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>3</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1991,8 +1330,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>4</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -2004,7 +1343,7 @@
         <v>905850</v>
       </c>
       <c r="E6">
-        <v>9.87</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F6">
         <v>905850</v>
@@ -2014,8 +1353,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>5</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -2037,8 +1376,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2">
-        <v>6</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -2050,7 +1389,7 @@
         <v>864160</v>
       </c>
       <c r="E8">
-        <v>9.36</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F8">
         <v>864160</v>
@@ -2060,8 +1399,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2">
-        <v>7</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -2073,7 +1412,7 @@
         <v>759150</v>
       </c>
       <c r="E9">
-        <v>8.29</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="F9">
         <v>759150</v>
@@ -2083,8 +1422,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2">
-        <v>8</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -2106,8 +1445,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2">
-        <v>9</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -2129,8 +1468,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2">
-        <v>10</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -2152,8 +1491,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2">
-        <v>11</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -2175,8 +1514,8 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2">
-        <v>12</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -2198,8 +1537,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2">
-        <v>13</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -2221,8 +1560,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2">
-        <v>14</v>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -2244,8 +1583,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2">
-        <v>15</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -2267,8 +1606,8 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>16</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -2290,8 +1629,8 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="2">
-        <v>17</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -2313,8 +1652,8 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="2">
-        <v>18</v>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -2336,8 +1675,8 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2">
-        <v>19</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -2359,8 +1698,8 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2">
-        <v>20</v>
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -2382,8 +1721,8 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="2">
-        <v>21</v>
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -2405,8 +1744,8 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="2">
-        <v>22</v>
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -2428,8 +1767,8 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2">
-        <v>23</v>
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -2451,8 +1790,8 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="2">
-        <v>24</v>
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -2474,8 +1813,8 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="2">
-        <v>25</v>
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
@@ -2497,8 +1836,8 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="2">
-        <v>26</v>
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -2520,8 +1859,8 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="2">
-        <v>27</v>
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -2543,8 +1882,8 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="2">
-        <v>28</v>
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -2566,8 +1905,8 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="2">
-        <v>29</v>
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -2589,8 +1928,8 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="2">
-        <v>30</v>
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -2612,8 +1951,8 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="2">
-        <v>31</v>
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
@@ -2635,8 +1974,8 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="2">
-        <v>32</v>
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -2658,8 +1997,8 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="2">
-        <v>33</v>
+      <c r="A35">
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
@@ -2681,8 +2020,8 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="2">
-        <v>34</v>
+      <c r="A36">
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
@@ -2704,8 +2043,8 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="2">
-        <v>35</v>
+      <c r="A37">
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
@@ -2727,8 +2066,8 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="2">
-        <v>36</v>
+      <c r="A38">
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
@@ -2750,8 +2089,8 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="2">
-        <v>37</v>
+      <c r="A39">
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
@@ -2773,8 +2112,8 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="2">
-        <v>38</v>
+      <c r="A40">
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
@@ -2796,8 +2135,8 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="2">
-        <v>39</v>
+      <c r="A41">
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
@@ -2819,8 +2158,8 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="2">
-        <v>40</v>
+      <c r="A42">
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
@@ -2842,8 +2181,8 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="2">
-        <v>41</v>
+      <c r="A43">
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
@@ -2865,8 +2204,8 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="2">
-        <v>42</v>
+      <c r="A44">
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
@@ -2888,8 +2227,8 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="2">
-        <v>43</v>
+      <c r="A45">
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
@@ -2911,8 +2250,8 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="2">
-        <v>44</v>
+      <c r="A46">
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
@@ -2934,8 +2273,8 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="2">
-        <v>45</v>
+      <c r="A47">
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
@@ -2957,8 +2296,8 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="2">
-        <v>46</v>
+      <c r="A48">
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
@@ -2980,8 +2319,8 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="2">
-        <v>47</v>
+      <c r="A49">
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
@@ -3003,8 +2342,8 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="2">
-        <v>48</v>
+      <c r="A50">
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
@@ -3026,8 +2365,8 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="2">
-        <v>49</v>
+      <c r="A51">
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
@@ -3049,8 +2388,8 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="2">
-        <v>50</v>
+      <c r="A52">
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
@@ -3072,8 +2411,8 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="2">
-        <v>51</v>
+      <c r="A53">
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
@@ -3095,8 +2434,8 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="2">
-        <v>52</v>
+      <c r="A54">
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
@@ -3118,8 +2457,8 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="2">
-        <v>53</v>
+      <c r="A55">
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
@@ -3141,8 +2480,8 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="2">
-        <v>54</v>
+      <c r="A56">
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
@@ -3164,8 +2503,8 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="2">
-        <v>55</v>
+      <c r="A57">
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
@@ -3187,8 +2526,8 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="2">
-        <v>56</v>
+      <c r="A58">
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
@@ -3210,8 +2549,8 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="2">
-        <v>57</v>
+      <c r="A59">
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
@@ -3233,14 +2572,14 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="2">
-        <v>58</v>
+      <c r="A60">
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
       </c>
       <c r="C60">
-        <v>8.38</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D60">
         <v>10400</v>
@@ -3256,8 +2595,8 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="2">
-        <v>59</v>
+      <c r="A61">
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
@@ -3279,8 +2618,8 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="2">
-        <v>60</v>
+      <c r="A62">
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>67</v>
@@ -3302,8 +2641,8 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="2">
-        <v>61</v>
+      <c r="A63">
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>68</v>
@@ -3325,8 +2664,8 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="2">
-        <v>62</v>
+      <c r="A64">
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
@@ -3348,8 +2687,8 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="2">
-        <v>63</v>
+      <c r="A65">
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>70</v>
@@ -3371,8 +2710,8 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="2">
-        <v>64</v>
+      <c r="A66">
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
@@ -3394,8 +2733,8 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="2">
-        <v>65</v>
+      <c r="A67">
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -3417,8 +2756,8 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="2">
-        <v>66</v>
+      <c r="A68">
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
@@ -3440,8 +2779,8 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="2">
-        <v>67</v>
+      <c r="A69">
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>74</v>
@@ -3463,8 +2802,8 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="2">
-        <v>68</v>
+      <c r="A70">
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
@@ -3486,8 +2825,8 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="2">
-        <v>69</v>
+      <c r="A71">
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>76</v>
@@ -3509,8 +2848,8 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="2">
-        <v>70</v>
+      <c r="A72">
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
@@ -3532,8 +2871,8 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="2">
-        <v>71</v>
+      <c r="A73">
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>78</v>
@@ -3555,8 +2894,8 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="2">
-        <v>72</v>
+      <c r="A74">
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>79</v>
@@ -3578,8 +2917,8 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="2">
-        <v>73</v>
+      <c r="A75">
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>80</v>
@@ -3601,8 +2940,8 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="2">
-        <v>74</v>
+      <c r="A76">
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>81</v>
@@ -3624,8 +2963,8 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="2">
-        <v>75</v>
+      <c r="A77">
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>82</v>
@@ -3647,8 +2986,8 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="2">
-        <v>76</v>
+      <c r="A78">
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>83</v>
@@ -3670,8 +3009,8 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="2">
-        <v>77</v>
+      <c r="A79">
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>84</v>
@@ -3693,8 +3032,8 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="2">
-        <v>78</v>
+      <c r="A80">
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>85</v>
@@ -3716,14 +3055,14 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="2">
-        <v>79</v>
+      <c r="A81">
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>86</v>
       </c>
       <c r="C81">
-        <v>9.62</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D81">
         <v>5620</v>
@@ -3739,8 +3078,8 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="2">
-        <v>80</v>
+      <c r="A82">
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>87</v>
@@ -3762,8 +3101,8 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="2">
-        <v>81</v>
+      <c r="A83">
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>88</v>
@@ -3785,8 +3124,8 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="2">
-        <v>82</v>
+      <c r="A84">
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>89</v>
@@ -3808,8 +3147,8 @@
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="2">
-        <v>83</v>
+      <c r="A85">
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>90</v>
@@ -3831,8 +3170,8 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="2">
-        <v>84</v>
+      <c r="A86">
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>91</v>
@@ -3854,8 +3193,8 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="2">
-        <v>85</v>
+      <c r="A87">
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>92</v>
@@ -3877,8 +3216,8 @@
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="2">
-        <v>86</v>
+      <c r="A88">
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>93</v>
@@ -3900,8 +3239,8 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="2">
-        <v>87</v>
+      <c r="A89">
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>94</v>
@@ -3923,8 +3262,8 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="2">
-        <v>88</v>
+      <c r="A90">
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>95</v>
@@ -3946,8 +3285,8 @@
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="2">
-        <v>89</v>
+      <c r="A91">
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>96</v>
@@ -3969,8 +3308,8 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="2">
-        <v>90</v>
+      <c r="A92">
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>97</v>
@@ -3992,8 +3331,8 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="2">
-        <v>91</v>
+      <c r="A93">
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>98</v>
@@ -4015,8 +3354,8 @@
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="2">
-        <v>92</v>
+      <c r="A94">
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>99</v>
@@ -4038,8 +3377,8 @@
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="2">
-        <v>93</v>
+      <c r="A95">
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>100</v>
@@ -4061,8 +3400,8 @@
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="2">
-        <v>94</v>
+      <c r="A96">
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>101</v>
@@ -4084,8 +3423,8 @@
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="2">
-        <v>95</v>
+      <c r="A97">
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>102</v>
@@ -4107,8 +3446,8 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="2">
-        <v>96</v>
+      <c r="A98">
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>103</v>
@@ -4130,8 +3469,8 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="2">
-        <v>97</v>
+      <c r="A99">
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>104</v>
@@ -4153,8 +3492,8 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="2">
-        <v>98</v>
+      <c r="A100">
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>105</v>
@@ -4176,8 +3515,8 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="2">
-        <v>99</v>
+      <c r="A101">
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>106</v>
@@ -4199,8 +3538,8 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="2">
-        <v>100</v>
+      <c r="A102">
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>107</v>
@@ -4222,8 +3561,8 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="2">
-        <v>101</v>
+      <c r="A103">
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>108</v>
@@ -4245,8 +3584,8 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="2">
-        <v>102</v>
+      <c r="A104">
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>109</v>
@@ -4268,8 +3607,8 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="2">
-        <v>103</v>
+      <c r="A105">
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
@@ -4291,14 +3630,14 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="2">
-        <v>104</v>
+      <c r="A106">
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>111</v>
       </c>
       <c r="C106">
-        <v>89.32</v>
+        <v>89.31999999999999</v>
       </c>
       <c r="D106">
         <v>3630</v>
@@ -4314,8 +3653,8 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="2">
-        <v>105</v>
+      <c r="A107">
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>112</v>
@@ -4337,8 +3676,8 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="2">
-        <v>106</v>
+      <c r="A108">
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>113</v>
@@ -4360,14 +3699,14 @@
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="2">
-        <v>107</v>
+      <c r="A109">
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>114</v>
       </c>
       <c r="C109">
-        <v>9.72</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="D109">
         <v>3470</v>
@@ -4383,8 +3722,8 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="2">
-        <v>108</v>
+      <c r="A110">
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>115</v>
@@ -4406,8 +3745,8 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="2">
-        <v>109</v>
+      <c r="A111">
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>116</v>
@@ -4429,8 +3768,8 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="2">
-        <v>110</v>
+      <c r="A112">
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>117</v>
@@ -4452,8 +3791,8 @@
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="2">
-        <v>111</v>
+      <c r="A113">
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>118</v>
@@ -4475,8 +3814,8 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="2">
-        <v>112</v>
+      <c r="A114">
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>119</v>
@@ -4498,8 +3837,8 @@
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="2">
-        <v>113</v>
+      <c r="A115">
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>120</v>
@@ -4521,8 +3860,8 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="2">
-        <v>114</v>
+      <c r="A116">
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>121</v>
@@ -4544,8 +3883,8 @@
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="2">
-        <v>115</v>
+      <c r="A117">
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>122</v>
@@ -4567,8 +3906,8 @@
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="2">
-        <v>116</v>
+      <c r="A118">
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>123</v>
@@ -4590,8 +3929,8 @@
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="2">
-        <v>117</v>
+      <c r="A119">
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>124</v>
@@ -4613,8 +3952,8 @@
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="2">
-        <v>118</v>
+      <c r="A120">
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>125</v>
@@ -4636,8 +3975,8 @@
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="2">
-        <v>119</v>
+      <c r="A121">
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>126</v>
@@ -4659,8 +3998,8 @@
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="2">
-        <v>120</v>
+      <c r="A122">
+        <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>127</v>
@@ -4682,8 +4021,8 @@
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="2">
-        <v>121</v>
+      <c r="A123">
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>128</v>
@@ -4705,8 +4044,8 @@
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="2">
-        <v>122</v>
+      <c r="A124">
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>129</v>
@@ -4728,8 +4067,8 @@
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="2">
-        <v>123</v>
+      <c r="A125">
+        <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>130</v>
@@ -4751,8 +4090,8 @@
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="2">
-        <v>124</v>
+      <c r="A126">
+        <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>131</v>
@@ -4774,14 +4113,14 @@
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="2">
-        <v>125</v>
+      <c r="A127">
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>132</v>
       </c>
       <c r="C127">
-        <v>9.72</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="D127">
         <v>2510</v>
@@ -4797,8 +4136,8 @@
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="2">
-        <v>126</v>
+      <c r="A128">
+        <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>133</v>
@@ -4820,8 +4159,8 @@
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="2">
-        <v>127</v>
+      <c r="A129">
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>134</v>
@@ -4843,8 +4182,8 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="2">
-        <v>128</v>
+      <c r="A130">
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>135</v>
@@ -4866,8 +4205,8 @@
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="2">
-        <v>129</v>
+      <c r="A131">
+        <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>136</v>
@@ -4889,8 +4228,8 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="2">
-        <v>130</v>
+      <c r="A132">
+        <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>137</v>
@@ -4912,8 +4251,8 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="2">
-        <v>131</v>
+      <c r="A133">
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>138</v>
@@ -4935,14 +4274,14 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="2">
-        <v>132</v>
+      <c r="A134">
+        <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>139</v>
       </c>
       <c r="C134">
-        <v>97.1</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D134">
         <v>2100</v>
@@ -4958,8 +4297,8 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="2">
-        <v>133</v>
+      <c r="A135">
+        <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>140</v>
@@ -4981,14 +4320,14 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="2">
-        <v>134</v>
+      <c r="A136">
+        <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>141</v>
       </c>
       <c r="C136">
-        <v>8.46</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D136">
         <v>2070</v>
@@ -5004,8 +4343,8 @@
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="2">
-        <v>135</v>
+      <c r="A137">
+        <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>142</v>
@@ -5027,8 +4366,8 @@
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="2">
-        <v>136</v>
+      <c r="A138">
+        <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>143</v>
@@ -5050,8 +4389,8 @@
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="2">
-        <v>137</v>
+      <c r="A139">
+        <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>144</v>
@@ -5073,8 +4412,8 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="2">
-        <v>138</v>
+      <c r="A140">
+        <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>145</v>
@@ -5096,8 +4435,8 @@
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="2">
-        <v>139</v>
+      <c r="A141">
+        <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>146</v>
@@ -5119,8 +4458,8 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="2">
-        <v>140</v>
+      <c r="A142">
+        <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>147</v>
@@ -5142,8 +4481,8 @@
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="2">
-        <v>141</v>
+      <c r="A143">
+        <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>148</v>
@@ -5165,8 +4504,8 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="2">
-        <v>142</v>
+      <c r="A144">
+        <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>149</v>
@@ -5188,8 +4527,8 @@
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="2">
-        <v>143</v>
+      <c r="A145">
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>150</v>
@@ -5211,8 +4550,8 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="2">
-        <v>144</v>
+      <c r="A146">
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>151</v>
@@ -5234,8 +4573,8 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="2">
-        <v>145</v>
+      <c r="A147">
+        <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>152</v>
@@ -5257,8 +4596,8 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="2">
-        <v>146</v>
+      <c r="A148">
+        <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>153</v>
@@ -5280,8 +4619,8 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="2">
-        <v>147</v>
+      <c r="A149">
+        <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>154</v>
@@ -5303,8 +4642,8 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="2">
-        <v>148</v>
+      <c r="A150">
+        <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>155</v>
@@ -5326,8 +4665,8 @@
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="2">
-        <v>149</v>
+      <c r="A151">
+        <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>156</v>
@@ -5349,8 +4688,8 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="2">
-        <v>150</v>
+      <c r="A152">
+        <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>157</v>
@@ -5372,8 +4711,8 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="2">
-        <v>151</v>
+      <c r="A153">
+        <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>158</v>
@@ -5395,8 +4734,8 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="2">
-        <v>152</v>
+      <c r="A154">
+        <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>159</v>
@@ -5418,8 +4757,8 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="2">
-        <v>153</v>
+      <c r="A155">
+        <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>160</v>
@@ -5441,8 +4780,8 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="2">
-        <v>154</v>
+      <c r="A156">
+        <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>161</v>
@@ -5464,8 +4803,8 @@
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="2">
-        <v>155</v>
+      <c r="A157">
+        <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>162</v>
@@ -5487,8 +4826,8 @@
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="2">
-        <v>156</v>
+      <c r="A158">
+        <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>163</v>
@@ -5510,8 +4849,8 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="2">
-        <v>157</v>
+      <c r="A159">
+        <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>164</v>
@@ -5533,8 +4872,8 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="2">
-        <v>158</v>
+      <c r="A160">
+        <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>165</v>
@@ -5556,8 +4895,8 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="2">
-        <v>159</v>
+      <c r="A161">
+        <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>166</v>
@@ -5579,8 +4918,8 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="2">
-        <v>160</v>
+      <c r="A162">
+        <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>167</v>
@@ -5602,8 +4941,8 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="2">
-        <v>161</v>
+      <c r="A163">
+        <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>168</v>
@@ -5625,14 +4964,14 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="2">
-        <v>162</v>
+      <c r="A164">
+        <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>169</v>
       </c>
       <c r="C164">
-        <v>8.21</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="D164">
         <v>1430</v>
@@ -5648,8 +4987,8 @@
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="2">
-        <v>163</v>
+      <c r="A165">
+        <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>170</v>
@@ -5671,8 +5010,8 @@
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="2">
-        <v>164</v>
+      <c r="A166">
+        <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>171</v>
@@ -5694,8 +5033,8 @@
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="2">
-        <v>165</v>
+      <c r="A167">
+        <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>172</v>
@@ -5717,8 +5056,8 @@
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="2">
-        <v>166</v>
+      <c r="A168">
+        <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>173</v>
@@ -5740,8 +5079,8 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="2">
-        <v>167</v>
+      <c r="A169">
+        <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>174</v>
@@ -5763,8 +5102,8 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="2">
-        <v>168</v>
+      <c r="A170">
+        <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>175</v>
@@ -5786,8 +5125,8 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="2">
-        <v>169</v>
+      <c r="A171">
+        <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>176</v>
@@ -5809,8 +5148,8 @@
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="2">
-        <v>170</v>
+      <c r="A172">
+        <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>177</v>
@@ -5832,8 +5171,8 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="2">
-        <v>171</v>
+      <c r="A173">
+        <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>178</v>
@@ -5855,8 +5194,8 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="2">
-        <v>172</v>
+      <c r="A174">
+        <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>179</v>
@@ -5878,8 +5217,8 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="2">
-        <v>173</v>
+      <c r="A175">
+        <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>180</v>
@@ -5901,8 +5240,8 @@
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="2">
-        <v>174</v>
+      <c r="A176">
+        <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>181</v>
@@ -5924,8 +5263,8 @@
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="2">
-        <v>175</v>
+      <c r="A177">
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>182</v>
@@ -5947,8 +5286,8 @@
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="2">
-        <v>176</v>
+      <c r="A178">
+        <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>183</v>
@@ -5970,8 +5309,8 @@
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="2">
-        <v>177</v>
+      <c r="A179">
+        <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>184</v>
@@ -5993,8 +5332,8 @@
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="2">
-        <v>178</v>
+      <c r="A180">
+        <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>185</v>
@@ -6016,8 +5355,8 @@
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="2">
-        <v>179</v>
+      <c r="A181">
+        <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>186</v>
@@ -6039,8 +5378,8 @@
       </c>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="2">
-        <v>180</v>
+      <c r="A182">
+        <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>187</v>
@@ -6062,8 +5401,8 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="2">
-        <v>181</v>
+      <c r="A183">
+        <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>188</v>
@@ -6085,8 +5424,8 @@
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="2">
-        <v>182</v>
+      <c r="A184">
+        <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>189</v>
@@ -6108,8 +5447,8 @@
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="2">
-        <v>183</v>
+      <c r="A185">
+        <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>190</v>
@@ -6131,8 +5470,8 @@
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="2">
-        <v>184</v>
+      <c r="A186">
+        <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>191</v>
@@ -6154,8 +5493,8 @@
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="2">
-        <v>185</v>
+      <c r="A187">
+        <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>192</v>
@@ -6177,8 +5516,8 @@
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="2">
-        <v>186</v>
+      <c r="A188">
+        <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>193</v>
@@ -6200,8 +5539,8 @@
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="2">
-        <v>187</v>
+      <c r="A189">
+        <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>194</v>
@@ -6223,8 +5562,8 @@
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="2">
-        <v>188</v>
+      <c r="A190">
+        <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>195</v>
@@ -6246,8 +5585,8 @@
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="2">
-        <v>189</v>
+      <c r="A191">
+        <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>196</v>
@@ -6269,8 +5608,8 @@
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="2">
-        <v>190</v>
+      <c r="A192">
+        <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>197</v>
@@ -6292,8 +5631,8 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="2">
-        <v>191</v>
+      <c r="A193">
+        <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>198</v>
@@ -6315,8 +5654,8 @@
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="2">
-        <v>192</v>
+      <c r="A194">
+        <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>199</v>
@@ -6325,7 +5664,7 @@
         <v>21.05</v>
       </c>
       <c r="D194">
-        <v>975.82</v>
+        <v>975.8200000000001</v>
       </c>
       <c r="E194">
         <v>11</v>
@@ -6338,8 +5677,8 @@
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="2">
-        <v>193</v>
+      <c r="A195">
+        <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>200</v>
@@ -6348,21 +5687,21 @@
         <v>2130</v>
       </c>
       <c r="D195">
-        <v>974.81</v>
+        <v>974.8099999999999</v>
       </c>
       <c r="E195">
         <v>11</v>
       </c>
       <c r="F195">
-        <v>974.81</v>
+        <v>974.8099999999999</v>
       </c>
       <c r="G195">
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="2">
-        <v>194</v>
+      <c r="A196">
+        <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>201</v>
@@ -6384,8 +5723,8 @@
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="2">
-        <v>195</v>
+      <c r="A197">
+        <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>202</v>
@@ -6407,8 +5746,8 @@
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="2">
-        <v>196</v>
+      <c r="A198">
+        <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>203</v>
@@ -6417,21 +5756,21 @@
         <v>4.39</v>
       </c>
       <c r="D198">
-        <v>894.18</v>
+        <v>894.1799999999999</v>
       </c>
       <c r="E198">
         <v>8</v>
       </c>
       <c r="F198">
-        <v>894.18</v>
+        <v>894.1799999999999</v>
       </c>
       <c r="G198">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="2">
-        <v>197</v>
+      <c r="A199">
+        <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>204</v>
@@ -6453,8 +5792,8 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="2">
-        <v>198</v>
+      <c r="A200">
+        <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>205</v>
@@ -6476,8 +5815,8 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="2">
-        <v>199</v>
+      <c r="A201">
+        <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>206</v>
@@ -6499,8 +5838,8 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="2">
-        <v>200</v>
+      <c r="A202">
+        <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>207</v>
@@ -6522,8 +5861,8 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="2">
-        <v>201</v>
+      <c r="A203">
+        <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>208</v>
@@ -6545,8 +5884,8 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="2">
-        <v>202</v>
+      <c r="A204">
+        <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>209</v>
@@ -6555,21 +5894,21 @@
         <v>2</v>
       </c>
       <c r="D204">
-        <v>839.56</v>
+        <v>839.5599999999999</v>
       </c>
       <c r="E204">
         <v>9</v>
       </c>
       <c r="F204">
-        <v>839.56</v>
+        <v>839.5599999999999</v>
       </c>
       <c r="G204">
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="2">
-        <v>203</v>
+      <c r="A205">
+        <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>210</v>
@@ -6591,8 +5930,8 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="2">
-        <v>204</v>
+      <c r="A206">
+        <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>211</v>
@@ -6614,8 +5953,8 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="2">
-        <v>205</v>
+      <c r="A207">
+        <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>212</v>
@@ -6637,8 +5976,8 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="2">
-        <v>206</v>
+      <c r="A208">
+        <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>213</v>
@@ -6660,8 +5999,8 @@
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="2">
-        <v>207</v>
+      <c r="A209">
+        <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>214</v>
@@ -6670,7 +6009,7 @@
         <v>3.54</v>
       </c>
       <c r="D209">
-        <v>797.81</v>
+        <v>797.8099999999999</v>
       </c>
       <c r="E209">
         <v>8</v>
@@ -6683,8 +6022,8 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="2">
-        <v>208</v>
+      <c r="A210">
+        <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>215</v>
@@ -6706,8 +6045,8 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="2">
-        <v>209</v>
+      <c r="A211">
+        <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>216</v>
@@ -6729,8 +6068,8 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="2">
-        <v>210</v>
+      <c r="A212">
+        <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>217</v>
@@ -6752,8 +6091,8 @@
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="2">
-        <v>211</v>
+      <c r="A213">
+        <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>218</v>
@@ -6762,7 +6101,7 @@
         <v>1.11</v>
       </c>
       <c r="D213">
-        <v>724.44</v>
+        <v>724.4400000000001</v>
       </c>
       <c r="E213">
         <v>8</v>
@@ -6771,12 +6110,12 @@
         <v>0</v>
       </c>
       <c r="G213">
-        <v>724.44</v>
+        <v>724.4400000000001</v>
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="2">
-        <v>212</v>
+      <c r="A214">
+        <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>219</v>
@@ -6798,8 +6137,8 @@
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="2">
-        <v>213</v>
+      <c r="A215">
+        <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>220</v>
@@ -6821,8 +6160,8 @@
       </c>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="2">
-        <v>214</v>
+      <c r="A216">
+        <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>221</v>
@@ -6844,8 +6183,8 @@
       </c>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="2">
-        <v>215</v>
+      <c r="A217">
+        <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>222</v>
@@ -6867,14 +6206,14 @@
       </c>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="2">
-        <v>216</v>
+      <c r="A218">
+        <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>223</v>
       </c>
       <c r="C218">
-        <v>8.97</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D218">
         <v>683.4</v>
@@ -6890,8 +6229,8 @@
       </c>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="2">
-        <v>217</v>
+      <c r="A219">
+        <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>224</v>
@@ -6913,8 +6252,8 @@
       </c>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="2">
-        <v>218</v>
+      <c r="A220">
+        <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>225</v>
@@ -6936,8 +6275,8 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="2">
-        <v>219</v>
+      <c r="A221">
+        <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>226</v>
@@ -6959,8 +6298,8 @@
       </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="2">
-        <v>220</v>
+      <c r="A222">
+        <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>227</v>
@@ -6969,21 +6308,21 @@
         <v>2.83</v>
       </c>
       <c r="D222">
-        <v>625.07</v>
+        <v>625.0700000000001</v>
       </c>
       <c r="E222">
         <v>7</v>
       </c>
       <c r="F222">
-        <v>625.07</v>
+        <v>625.0700000000001</v>
       </c>
       <c r="G222">
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="2">
-        <v>221</v>
+      <c r="A223">
+        <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>228</v>
@@ -7005,8 +6344,8 @@
       </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="2">
-        <v>222</v>
+      <c r="A224">
+        <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>229</v>
@@ -7028,8 +6367,8 @@
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="2">
-        <v>223</v>
+      <c r="A225">
+        <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>230</v>
@@ -7038,21 +6377,21 @@
         <v>24.71</v>
       </c>
       <c r="D225">
-        <v>618.57</v>
+        <v>618.5700000000001</v>
       </c>
       <c r="E225">
         <v>7</v>
       </c>
       <c r="F225">
-        <v>618.57</v>
+        <v>618.5700000000001</v>
       </c>
       <c r="G225">
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="2">
-        <v>224</v>
+      <c r="A226">
+        <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>231</v>
@@ -7074,8 +6413,8 @@
       </c>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="2">
-        <v>225</v>
+      <c r="A227">
+        <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>232</v>
@@ -7097,8 +6436,8 @@
       </c>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="2">
-        <v>226</v>
+      <c r="A228">
+        <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>233</v>
@@ -7107,7 +6446,7 @@
         <v>23.47</v>
       </c>
       <c r="D228">
-        <v>564.68</v>
+        <v>564.6799999999999</v>
       </c>
       <c r="E228">
         <v>6</v>
@@ -7116,12 +6455,12 @@
         <v>0</v>
       </c>
       <c r="G228">
-        <v>564.68</v>
+        <v>564.6799999999999</v>
       </c>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="2">
-        <v>227</v>
+      <c r="A229">
+        <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>234</v>
@@ -7143,8 +6482,8 @@
       </c>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="2">
-        <v>228</v>
+      <c r="A230">
+        <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>235</v>
@@ -7166,8 +6505,8 @@
       </c>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="2">
-        <v>229</v>
+      <c r="A231">
+        <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>236</v>
@@ -7176,7 +6515,7 @@
         <v>1.88</v>
       </c>
       <c r="D231">
-        <v>543.93</v>
+        <v>543.9299999999999</v>
       </c>
       <c r="E231">
         <v>6</v>
@@ -7185,12 +6524,12 @@
         <v>0</v>
       </c>
       <c r="G231">
-        <v>543.93</v>
+        <v>543.9299999999999</v>
       </c>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="2">
-        <v>230</v>
+      <c r="A232">
+        <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>237</v>
@@ -7212,8 +6551,8 @@
       </c>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="2">
-        <v>231</v>
+      <c r="A233">
+        <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>238</v>
@@ -7235,8 +6574,8 @@
       </c>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="2">
-        <v>232</v>
+      <c r="A234">
+        <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>239</v>
@@ -7258,8 +6597,8 @@
       </c>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="2">
-        <v>233</v>
+      <c r="A235">
+        <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>240</v>
@@ -7281,8 +6620,8 @@
       </c>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="2">
-        <v>234</v>
+      <c r="A236">
+        <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>241</v>
@@ -7304,8 +6643,8 @@
       </c>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="2">
-        <v>235</v>
+      <c r="A237">
+        <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>242</v>
@@ -7327,8 +6666,8 @@
       </c>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="2">
-        <v>236</v>
+      <c r="A238">
+        <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>243</v>
@@ -7350,8 +6689,8 @@
       </c>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="2">
-        <v>237</v>
+      <c r="A239">
+        <v>238</v>
       </c>
       <c r="B239" t="s">
         <v>244</v>
@@ -7373,8 +6712,8 @@
       </c>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="2">
-        <v>238</v>
+      <c r="A240">
+        <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>245</v>
@@ -7396,8 +6735,8 @@
       </c>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="2">
-        <v>239</v>
+      <c r="A241">
+        <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>246</v>
@@ -7419,8 +6758,8 @@
       </c>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="2">
-        <v>240</v>
+      <c r="A242">
+        <v>241</v>
       </c>
       <c r="B242" t="s">
         <v>247</v>
@@ -7442,8 +6781,8 @@
       </c>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="2">
-        <v>241</v>
+      <c r="A243">
+        <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>248</v>
@@ -7465,8 +6804,8 @@
       </c>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="2">
-        <v>242</v>
+      <c r="A244">
+        <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>249</v>
@@ -7488,8 +6827,8 @@
       </c>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="2">
-        <v>243</v>
+      <c r="A245">
+        <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>250</v>
@@ -7511,8 +6850,8 @@
       </c>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="2">
-        <v>244</v>
+      <c r="A246">
+        <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>251</v>
@@ -7534,8 +6873,8 @@
       </c>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="2">
-        <v>245</v>
+      <c r="A247">
+        <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>252</v>
@@ -7557,8 +6896,8 @@
       </c>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" s="2">
-        <v>246</v>
+      <c r="A248">
+        <v>247</v>
       </c>
       <c r="B248" t="s">
         <v>253</v>
@@ -7580,8 +6919,8 @@
       </c>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="2">
-        <v>247</v>
+      <c r="A249">
+        <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>254</v>
@@ -7603,8 +6942,8 @@
       </c>
     </row>
     <row r="250" spans="1:7">
-      <c r="A250" s="2">
-        <v>248</v>
+      <c r="A250">
+        <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>255</v>
@@ -7626,8 +6965,8 @@
       </c>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="2">
-        <v>249</v>
+      <c r="A251">
+        <v>250</v>
       </c>
       <c r="B251" t="s">
         <v>256</v>
@@ -7649,8 +6988,8 @@
       </c>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="2">
-        <v>250</v>
+      <c r="A252">
+        <v>251</v>
       </c>
       <c r="B252" t="s">
         <v>257</v>
@@ -7672,8 +7011,8 @@
       </c>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="2">
-        <v>251</v>
+      <c r="A253">
+        <v>252</v>
       </c>
       <c r="B253" t="s">
         <v>258</v>
@@ -7695,8 +7034,8 @@
       </c>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="2">
-        <v>252</v>
+      <c r="A254">
+        <v>253</v>
       </c>
       <c r="B254" t="s">
         <v>259</v>
@@ -7718,8 +7057,8 @@
       </c>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="2">
-        <v>253</v>
+      <c r="A255">
+        <v>254</v>
       </c>
       <c r="B255" t="s">
         <v>260</v>
@@ -7741,8 +7080,8 @@
       </c>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="2">
-        <v>254</v>
+      <c r="A256">
+        <v>255</v>
       </c>
       <c r="B256" t="s">
         <v>261</v>
@@ -7764,8 +7103,8 @@
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="2">
-        <v>255</v>
+      <c r="A257">
+        <v>256</v>
       </c>
       <c r="B257" t="s">
         <v>262</v>
@@ -7787,8 +7126,8 @@
       </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="2">
-        <v>256</v>
+      <c r="A258">
+        <v>257</v>
       </c>
       <c r="B258" t="s">
         <v>263</v>
@@ -7810,8 +7149,8 @@
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="2">
-        <v>257</v>
+      <c r="A259">
+        <v>258</v>
       </c>
       <c r="B259" t="s">
         <v>264</v>
@@ -7833,8 +7172,8 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="2">
-        <v>258</v>
+      <c r="A260">
+        <v>259</v>
       </c>
       <c r="B260" t="s">
         <v>265</v>
@@ -7856,8 +7195,8 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="2">
-        <v>259</v>
+      <c r="A261">
+        <v>260</v>
       </c>
       <c r="B261" t="s">
         <v>266</v>
@@ -7879,8 +7218,8 @@
       </c>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="2">
-        <v>260</v>
+      <c r="A262">
+        <v>261</v>
       </c>
       <c r="B262" t="s">
         <v>267</v>
@@ -7902,8 +7241,8 @@
       </c>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="2">
-        <v>261</v>
+      <c r="A263">
+        <v>262</v>
       </c>
       <c r="B263" t="s">
         <v>268</v>
@@ -7925,8 +7264,8 @@
       </c>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="2">
-        <v>262</v>
+      <c r="A264">
+        <v>263</v>
       </c>
       <c r="B264" t="s">
         <v>269</v>
@@ -7948,8 +7287,8 @@
       </c>
     </row>
     <row r="265" spans="1:7">
-      <c r="A265" s="2">
-        <v>263</v>
+      <c r="A265">
+        <v>264</v>
       </c>
       <c r="B265" t="s">
         <v>270</v>
@@ -7971,8 +7310,8 @@
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="2">
-        <v>264</v>
+      <c r="A266">
+        <v>265</v>
       </c>
       <c r="B266" t="s">
         <v>271</v>
@@ -7994,8 +7333,8 @@
       </c>
     </row>
     <row r="267" spans="1:7">
-      <c r="A267" s="2">
-        <v>265</v>
+      <c r="A267">
+        <v>266</v>
       </c>
       <c r="B267" t="s">
         <v>272</v>
@@ -8017,8 +7356,8 @@
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="2">
-        <v>266</v>
+      <c r="A268">
+        <v>267</v>
       </c>
       <c r="B268" t="s">
         <v>273</v>
@@ -8040,8 +7379,8 @@
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="2">
-        <v>267</v>
+      <c r="A269">
+        <v>268</v>
       </c>
       <c r="B269" t="s">
         <v>274</v>
@@ -8063,8 +7402,8 @@
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="2">
-        <v>268</v>
+      <c r="A270">
+        <v>269</v>
       </c>
       <c r="B270" t="s">
         <v>275</v>
@@ -8086,8 +7425,8 @@
       </c>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="2">
-        <v>269</v>
+      <c r="A271">
+        <v>270</v>
       </c>
       <c r="B271" t="s">
         <v>276</v>
@@ -8109,8 +7448,8 @@
       </c>
     </row>
     <row r="272" spans="1:7">
-      <c r="A272" s="2">
-        <v>270</v>
+      <c r="A272">
+        <v>271</v>
       </c>
       <c r="B272" t="s">
         <v>277</v>
@@ -8132,8 +7471,8 @@
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="2">
-        <v>271</v>
+      <c r="A273">
+        <v>272</v>
       </c>
       <c r="B273" t="s">
         <v>278</v>
@@ -8155,7 +7494,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BTL/Project_E-Commerce Growth Analysis(TikTokShop)/Data/Creator_chuaCH_1thang.xlsx
+++ b/BTL/Project_E-Commerce Growth Analysis(TikTokShop)/Data/Creator_chuaCH_1thang.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -856,13 +869,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -870,19 +889,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -905,9 +1261,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -915,11 +1513,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1202,17 +1852,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="16.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="27.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="21.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="25.2222222222222" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -1343,7 +2004,7 @@
         <v>905850</v>
       </c>
       <c r="E6">
-        <v>9.869999999999999</v>
+        <v>9.87</v>
       </c>
       <c r="F6">
         <v>905850</v>
@@ -1389,7 +2050,7 @@
         <v>864160</v>
       </c>
       <c r="E8">
-        <v>9.359999999999999</v>
+        <v>9.36</v>
       </c>
       <c r="F8">
         <v>864160</v>
@@ -1412,7 +2073,7 @@
         <v>759150</v>
       </c>
       <c r="E9">
-        <v>8.289999999999999</v>
+        <v>8.29</v>
       </c>
       <c r="F9">
         <v>759150</v>
@@ -2579,7 +3240,7 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>8.380000000000001</v>
+        <v>8.38</v>
       </c>
       <c r="D60">
         <v>10400</v>
@@ -3062,7 +3723,7 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>9.619999999999999</v>
+        <v>9.62</v>
       </c>
       <c r="D81">
         <v>5620</v>
@@ -3637,7 +4298,7 @@
         <v>111</v>
       </c>
       <c r="C106">
-        <v>89.31999999999999</v>
+        <v>89.32</v>
       </c>
       <c r="D106">
         <v>3630</v>
@@ -3706,7 +4367,7 @@
         <v>114</v>
       </c>
       <c r="C109">
-        <v>9.720000000000001</v>
+        <v>9.72</v>
       </c>
       <c r="D109">
         <v>3470</v>
@@ -4120,7 +4781,7 @@
         <v>132</v>
       </c>
       <c r="C127">
-        <v>9.720000000000001</v>
+        <v>9.72</v>
       </c>
       <c r="D127">
         <v>2510</v>
@@ -4281,7 +4942,7 @@
         <v>139</v>
       </c>
       <c r="C134">
-        <v>97.09999999999999</v>
+        <v>97.1</v>
       </c>
       <c r="D134">
         <v>2100</v>
@@ -4327,7 +4988,7 @@
         <v>141</v>
       </c>
       <c r="C136">
-        <v>8.460000000000001</v>
+        <v>8.46</v>
       </c>
       <c r="D136">
         <v>2070</v>
@@ -4971,7 +5632,7 @@
         <v>169</v>
       </c>
       <c r="C164">
-        <v>8.210000000000001</v>
+        <v>8.21</v>
       </c>
       <c r="D164">
         <v>1430</v>
@@ -5664,7 +6325,7 @@
         <v>21.05</v>
       </c>
       <c r="D194">
-        <v>975.8200000000001</v>
+        <v>975.82</v>
       </c>
       <c r="E194">
         <v>11</v>
@@ -5687,13 +6348,13 @@
         <v>2130</v>
       </c>
       <c r="D195">
-        <v>974.8099999999999</v>
+        <v>974.81</v>
       </c>
       <c r="E195">
         <v>11</v>
       </c>
       <c r="F195">
-        <v>974.8099999999999</v>
+        <v>974.81</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -5756,13 +6417,13 @@
         <v>4.39</v>
       </c>
       <c r="D198">
-        <v>894.1799999999999</v>
+        <v>894.18</v>
       </c>
       <c r="E198">
         <v>8</v>
       </c>
       <c r="F198">
-        <v>894.1799999999999</v>
+        <v>894.18</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -5894,13 +6555,13 @@
         <v>2</v>
       </c>
       <c r="D204">
-        <v>839.5599999999999</v>
+        <v>839.56</v>
       </c>
       <c r="E204">
         <v>9</v>
       </c>
       <c r="F204">
-        <v>839.5599999999999</v>
+        <v>839.56</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -6009,7 +6670,7 @@
         <v>3.54</v>
       </c>
       <c r="D209">
-        <v>797.8099999999999</v>
+        <v>797.81</v>
       </c>
       <c r="E209">
         <v>8</v>
@@ -6101,7 +6762,7 @@
         <v>1.11</v>
       </c>
       <c r="D213">
-        <v>724.4400000000001</v>
+        <v>724.44</v>
       </c>
       <c r="E213">
         <v>8</v>
@@ -6110,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="G213">
-        <v>724.4400000000001</v>
+        <v>724.44</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6213,7 +6874,7 @@
         <v>223</v>
       </c>
       <c r="C218">
-        <v>8.970000000000001</v>
+        <v>8.97</v>
       </c>
       <c r="D218">
         <v>683.4</v>
@@ -6308,13 +6969,13 @@
         <v>2.83</v>
       </c>
       <c r="D222">
-        <v>625.0700000000001</v>
+        <v>625.07</v>
       </c>
       <c r="E222">
         <v>7</v>
       </c>
       <c r="F222">
-        <v>625.0700000000001</v>
+        <v>625.07</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -6377,13 +7038,13 @@
         <v>24.71</v>
       </c>
       <c r="D225">
-        <v>618.5700000000001</v>
+        <v>618.57</v>
       </c>
       <c r="E225">
         <v>7</v>
       </c>
       <c r="F225">
-        <v>618.5700000000001</v>
+        <v>618.57</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -6446,7 +7107,7 @@
         <v>23.47</v>
       </c>
       <c r="D228">
-        <v>564.6799999999999</v>
+        <v>564.68</v>
       </c>
       <c r="E228">
         <v>6</v>
@@ -6455,7 +7116,7 @@
         <v>0</v>
       </c>
       <c r="G228">
-        <v>564.6799999999999</v>
+        <v>564.68</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6515,7 +7176,7 @@
         <v>1.88</v>
       </c>
       <c r="D231">
-        <v>543.9299999999999</v>
+        <v>543.93</v>
       </c>
       <c r="E231">
         <v>6</v>
@@ -6524,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="G231">
-        <v>543.9299999999999</v>
+        <v>543.93</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7495,5 +8156,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>